--- a/_resource/excel/achieve.xlsx
+++ b/_resource/excel/achieve.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-UseOperate = 1,
-UseFinal = 2,
-</t>
+Add = 1,  // +
+Dec = 2,  // -
+Set = 3,  // =</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,13 +86,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Add = 1,  // +
-Dec = 2,  // -
-Set = 3,  // =</t>
+UseOperate = 1,
+UseFinal = 2,
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,15 +122,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>HandleType</t>
+    <t>Limits</t>
   </si>
   <si>
     <t>ParentName</t>
@@ -139,24 +136,24 @@
     <t>DataName</t>
   </si>
   <si>
+    <t>DataKey</t>
+  </si>
+  <si>
     <t>TriggerType</t>
   </si>
   <si>
     <t>TriggerValue</t>
   </si>
   <si>
+    <t>Operate</t>
+  </si>
+  <si>
     <t>UseType</t>
   </si>
   <si>
     <t>UseValue</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Operate</t>
-  </si>
-  <si>
     <t>DoneValue</t>
   </si>
   <si>
@@ -169,10 +166,7 @@
     <t>成就id</t>
   </si>
   <si>
-    <t>等级限制</t>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>限制条件</t>
   </si>
   <si>
     <t>父属性名</t>
@@ -181,24 +175,24 @@
     <t>子属性名</t>
   </si>
   <si>
+    <t>键值</t>
+  </si>
+  <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>触发值</t>
   </si>
   <si>
+    <t>操作类型</t>
+  </si>
+  <si>
     <t>使用的类型</t>
   </si>
   <si>
     <t>使用的实际数值</t>
   </si>
   <si>
-    <t>键值</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
     <t>完成数值</t>
   </si>
   <si>
@@ -208,55 +202,28 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>["level":"10"]</t>
+  </si>
+  <si>
     <t>totalscore</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>[{"money":{"money":"50"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"100"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"500"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"1000"}}]</t>
+    <t>[{"money":"50"}]</t>
   </si>
   <si>
     <t>victory</t>
   </si>
   <si>
-    <t>[{"money":{"money":"300"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"600"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"950"}}]</t>
-  </si>
-  <si>
     <t>topten</t>
   </si>
   <si>
-    <t>[{"money":{"money":"150"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"250"}}]</t>
-  </si>
-  <si>
     <t>recent</t>
   </si>
   <si>
     <t>kill</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"200"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"700"}}]</t>
   </si>
 </sst>
 </file>
@@ -264,12 +231,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +265,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,8 +293,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,16 +349,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,67 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -426,13 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -440,8 +393,26 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,192 +445,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -683,17 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -703,6 +651,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,7 +694,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,45 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -789,170 +752,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -970,9 +918,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,19 +1239,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="20.625" customWidth="1"/>
-    <col min="14" max="14" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,251 +1300,226 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="2:9">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="G3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="7:8">
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4">
-        <v>11</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="7"/>
+      <c r="N4" s="6"/>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:15">
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:14">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>100</v>
-      </c>
-      <c r="M5" s="4">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="7"/>
+      <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>500</v>
+      </c>
+      <c r="L6" s="4">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>500</v>
-      </c>
-      <c r="M6" s="4">
-        <v>11</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="4">
-        <v>11</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1599,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -1611,30 +1540,25 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
         <v>11</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>31</v>
+      <c r="M8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1643,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -1652,33 +1576,28 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>5</v>
-      </c>
-      <c r="M9" s="4">
         <v>11</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>35</v>
+      <c r="M9" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1687,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -1696,33 +1615,28 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L10" s="4">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4">
         <v>11</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>36</v>
+      <c r="M10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1731,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1740,33 +1654,28 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L11" s="4">
-        <v>50</v>
-      </c>
-      <c r="M11" s="4">
         <v>11</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>37</v>
+      <c r="M11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1775,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1784,33 +1693,28 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L12" s="4">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4">
         <v>11</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>39</v>
+      <c r="M12" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1819,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1828,33 +1732,28 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L13" s="4">
-        <v>35</v>
-      </c>
-      <c r="M13" s="4">
         <v>11</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>40</v>
+      <c r="M13" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1863,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -1872,33 +1771,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L14" s="4">
-        <v>150</v>
-      </c>
-      <c r="M14" s="4">
         <v>11</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>32</v>
+      <c r="M14" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1907,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -1916,33 +1810,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="L15" s="4">
-        <v>300</v>
-      </c>
-      <c r="M15" s="4">
         <v>11</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>37</v>
+      <c r="M15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1951,42 +1840,37 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>10</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
         <v>11</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>43</v>
+      <c r="M16" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1995,42 +1879,37 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>10</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17" s="4">
         <v>11</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>32</v>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2039,42 +1918,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
         <v>2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>10</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L18" s="4">
-        <v>20</v>
-      </c>
-      <c r="M18" s="4">
         <v>11</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>44</v>
+      <c r="M18" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
@@ -2083,63 +1957,22 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>30</v>
       </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L19" s="4">
-        <v>30</v>
-      </c>
-      <c r="M19" s="4">
         <v>11</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>10</v>
-      </c>
-      <c r="M20" s="6">
-        <v>11</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>31</v>
+      <c r="M19" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/_resource/excel/achieve.xlsx
+++ b/_resource/excel/achieve.xlsx
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,12 +154,12 @@
     <t>UseValue</t>
   </si>
   <si>
+    <t>DoneType</t>
+  </si>
+  <si>
     <t>DoneValue</t>
   </si>
   <si>
-    <t>DoneType</t>
-  </si>
-  <si>
     <t>Rewards</t>
   </si>
   <si>
@@ -193,10 +193,10 @@
     <t>使用的实际数值</t>
   </si>
   <si>
+    <t>完成条件</t>
+  </si>
+  <si>
     <t>完成数值</t>
-  </si>
-  <si>
-    <t>完成条件</t>
   </si>
   <si>
     <t>奖励</t>
@@ -1241,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
         <v>30</v>
-      </c>
-      <c r="L4" s="4">
-        <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>29</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
         <v>100</v>
-      </c>
-      <c r="L5" s="4">
-        <v>11</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>29</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4">
         <v>500</v>
-      </c>
-      <c r="L6" s="4">
-        <v>11</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>29</v>
@@ -1498,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4">
         <v>1000</v>
-      </c>
-      <c r="L7" s="4">
-        <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>29</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L8" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>29</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
         <v>5</v>
-      </c>
-      <c r="L9" s="4">
-        <v>11</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>29</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
+        <v>11</v>
+      </c>
+      <c r="L10" s="4">
         <v>20</v>
-      </c>
-      <c r="L10" s="4">
-        <v>11</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>29</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
         <v>50</v>
-      </c>
-      <c r="L11" s="4">
-        <v>11</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>29</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4">
         <v>10</v>
-      </c>
-      <c r="L12" s="4">
-        <v>11</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>29</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
         <v>35</v>
-      </c>
-      <c r="L13" s="4">
-        <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>29</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4">
         <v>150</v>
-      </c>
-      <c r="L14" s="4">
-        <v>11</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>29</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <v>11</v>
+      </c>
+      <c r="L15" s="4">
         <v>300</v>
-      </c>
-      <c r="L15" s="4">
-        <v>11</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>29</v>
@@ -1849,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L16" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>29</v>
@@ -1888,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="K17" s="4">
+        <v>11</v>
+      </c>
+      <c r="L17" s="4">
         <v>5</v>
-      </c>
-      <c r="L17" s="4">
-        <v>11</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>29</v>
@@ -1927,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="K18" s="4">
+        <v>11</v>
+      </c>
+      <c r="L18" s="4">
         <v>20</v>
-      </c>
-      <c r="L18" s="4">
-        <v>11</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>29</v>
@@ -1966,10 +1966,10 @@
         <v>30</v>
       </c>
       <c r="K19" s="4">
+        <v>11</v>
+      </c>
+      <c r="L19" s="4">
         <v>30</v>
-      </c>
-      <c r="L19" s="4">
-        <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>29</v>
